--- a/BackTest/2019-10-28 BackTest ETC.xlsx
+++ b/BackTest/2019-10-28 BackTest ETC.xlsx
@@ -1291,20 +1291,14 @@
         <v>5380</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5370</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,12 +1332,12 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5380</v>
+        <v>5375</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1451,14 +1445,12 @@
         <v>5373.333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5365</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1492,14 +1484,12 @@
         <v>5368.333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5365</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1533,14 +1523,12 @@
         <v>5368.333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5375</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1580,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5385</v>
+        <v>5375</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1621,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5390</v>
+        <v>5385</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
@@ -1662,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5375</v>
+        <v>5390</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
@@ -1697,14 +1685,12 @@
         <v>5380</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5380</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1738,14 +1724,12 @@
         <v>5378.333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5385</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1779,14 +1763,12 @@
         <v>5390</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5405</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1820,14 +1802,12 @@
         <v>5398.333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5405</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1861,14 +1841,12 @@
         <v>5403.333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5405</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1902,14 +1880,12 @@
         <v>5398.333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1943,14 +1919,12 @@
         <v>5398.333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5405</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1984,14 +1958,12 @@
         <v>5395</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5390</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2025,14 +1997,12 @@
         <v>5401.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5410</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2066,14 +2036,12 @@
         <v>5405</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5410</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2107,14 +2075,12 @@
         <v>5400</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5390</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2148,14 +2114,12 @@
         <v>5400</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5410</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2189,14 +2153,12 @@
         <v>5401.666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5410</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2230,14 +2192,12 @@
         <v>5413.333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5410</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2271,14 +2231,12 @@
         <v>5425</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5430</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2312,14 +2270,12 @@
         <v>5435</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5450</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2353,14 +2309,12 @@
         <v>5458.333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5470</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2394,14 +2348,12 @@
         <v>5461.666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5455</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2435,14 +2387,12 @@
         <v>5463.333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5455</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -5404,18 +5354,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5443,15 +5391,11 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5486,12 +5430,10 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5519,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5659,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -14584,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
@@ -14689,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
@@ -14724,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
@@ -15599,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
@@ -15634,7 +15576,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
@@ -15669,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
@@ -15704,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest ETC.xlsx
+++ b/BackTest/2019-10-28 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4780.783799999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6642.552699999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5435</v>
@@ -523,11 +523,9 @@
         <v>5931.480699999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -562,11 +560,9 @@
         <v>7079.831199999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -638,11 +634,9 @@
         <v>6363.739099999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -714,11 +708,9 @@
         <v>8154.528499999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -753,11 +745,9 @@
         <v>8357.428499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -2420,18 +2410,16 @@
         <v>12252.49512100992</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2461,11 +2449,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2478,11 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2535,11 +2515,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2568,16 +2544,14 @@
         <v>12472.27412100991</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2603,7 +2577,7 @@
         <v>12719.68022100991</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2636,7 +2610,7 @@
         <v>12863.05272100991</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2669,7 +2643,7 @@
         <v>12851.16072100991</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2702,7 +2676,7 @@
         <v>11413.25062100991</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2735,7 +2709,7 @@
         <v>11530.03812100991</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2768,7 +2742,7 @@
         <v>11530.03812100991</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2801,7 +2775,7 @@
         <v>10894.19102100991</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2834,7 +2808,7 @@
         <v>10894.19102100991</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2900,7 +2874,7 @@
         <v>8685.436821009911</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2933,7 +2907,7 @@
         <v>8696.23682100991</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2966,7 +2940,7 @@
         <v>8706.328321009911</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2999,7 +2973,7 @@
         <v>8693.384421009911</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3032,7 +3006,7 @@
         <v>8499.93392100991</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3065,7 +3039,7 @@
         <v>8501.983921009909</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3098,7 +3072,7 @@
         <v>8487.27112100991</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3131,7 +3105,7 @@
         <v>8297.253921009909</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3164,7 +3138,7 @@
         <v>8297.253921009909</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3197,7 +3171,7 @@
         <v>7359.075221009909</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3230,7 +3204,7 @@
         <v>6401.159521009909</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3263,7 +3237,7 @@
         <v>7243.721421009909</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3296,7 +3270,7 @@
         <v>6779.126421009909</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3329,7 +3303,7 @@
         <v>6576.206421009909</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3362,7 +3336,7 @@
         <v>6596.498421009909</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3593,17 +3567,11 @@
         <v>6079.037521009909</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3632,17 +3600,11 @@
         <v>6961.85652100991</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3637,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3712,11 +3670,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3745,17 +3699,11 @@
         <v>7334.931121009909</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3784,17 +3732,11 @@
         <v>7405.999421009909</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3823,17 +3765,11 @@
         <v>7506.399421009909</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3862,17 +3798,11 @@
         <v>7742.368421009909</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3901,17 +3831,11 @@
         <v>7742.368421009909</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3868,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +3901,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4014,17 +3930,11 @@
         <v>7126.838021009909</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4053,17 +3963,11 @@
         <v>5952.720221009909</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4092,17 +3996,11 @@
         <v>6136.554721009909</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4131,17 +4029,11 @@
         <v>6249.387721009909</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4170,17 +4062,11 @@
         <v>6187.204121009909</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4099,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4246,17 +4128,11 @@
         <v>6490.794221009908</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +4165,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4326,11 +4198,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4363,11 +4231,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4400,11 +4264,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4437,11 +4297,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +4330,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +4363,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4396,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4585,11 +4429,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4622,11 +4462,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4659,11 +4495,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4696,11 +4528,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4561,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4770,11 +4594,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4627,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +4660,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4881,11 +4693,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +4726,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4759,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +4792,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5029,11 +4825,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5066,11 +4858,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +4891,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +4924,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5177,11 +4957,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5210,17 +4986,11 @@
         <v>4276.750193243141</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5249,17 +5019,11 @@
         <v>4427.041993243141</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5288,17 +5052,11 @@
         <v>4313.749993243141</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5327,17 +5085,11 @@
         <v>4222.390193243141</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +5122,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5155,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5444,11 +5188,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5477,17 +5217,11 @@
         <v>4223.215393243141</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5516,17 +5250,11 @@
         <v>4204.763593243141</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5555,17 +5283,11 @@
         <v>4217.071693243141</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5594,17 +5316,11 @@
         <v>4217.071693243141</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5633,17 +5349,11 @@
         <v>4132.662793243141</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5672,17 +5382,11 @@
         <v>4146.019593243141</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5711,17 +5415,11 @@
         <v>3538.414093243141</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5452,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5787,17 +5481,11 @@
         <v>3638.414093243141</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5826,17 +5514,11 @@
         <v>3638.414093243141</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5865,17 +5547,11 @@
         <v>3605.967193243141</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5904,17 +5580,11 @@
         <v>3886.177693243141</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +5617,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5984,11 +5650,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6021,11 +5683,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6058,11 +5716,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6095,11 +5749,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6132,11 +5782,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6169,11 +5815,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6206,11 +5848,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6243,11 +5881,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +5914,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +5947,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6354,11 +5980,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6013,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6428,11 +6046,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6465,11 +6079,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6502,11 +6112,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +6145,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6576,11 +6178,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6613,11 +6211,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +6244,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6277,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6724,11 +6310,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6761,11 +6343,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6794,16 +6372,14 @@
         <v>2759.729993243142</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
       <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -6928,7 +6504,7 @@
         <v>4249.999293243142</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7192,7 +6768,7 @@
         <v>5354.637993243143</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7225,7 +6801,7 @@
         <v>4872.932093243143</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7258,7 +6834,7 @@
         <v>5213.791593243142</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7291,7 +6867,7 @@
         <v>5206.279693243142</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7324,7 +6900,7 @@
         <v>4981.117793243142</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7357,7 +6933,7 @@
         <v>5319.470893243142</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7390,7 +6966,7 @@
         <v>8979.056293243142</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7423,7 +6999,7 @@
         <v>8168.411693243143</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7456,7 +7032,7 @@
         <v>8557.991393243143</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7489,7 +7065,7 @@
         <v>7072.633493243143</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7522,7 +7098,7 @@
         <v>6457.224693243143</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7555,7 +7131,7 @@
         <v>6226.798193243143</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7819,7 +7395,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8677,7 +8253,7 @@
         <v>5205.952393243143</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8809,7 +8385,7 @@
         <v>3915.209093243142</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8842,7 +8418,7 @@
         <v>4049.176993243142</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8974,7 +8550,7 @@
         <v>4645.507093243143</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9073,7 +8649,7 @@
         <v>4378.790893243143</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9139,7 +8715,7 @@
         <v>3884.326293243143</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9172,7 +8748,7 @@
         <v>3532.160493243143</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9205,7 +8781,7 @@
         <v>3296.599593243143</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9304,7 +8880,7 @@
         <v>4499.410993243143</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9370,7 +8946,7 @@
         <v>4322.376493243143</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9403,7 +8979,7 @@
         <v>5144.628893243143</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9436,7 +9012,7 @@
         <v>3316.806193243144</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9469,7 +9045,7 @@
         <v>4336.939293243144</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9502,7 +9078,7 @@
         <v>4254.257793243144</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9535,7 +9111,7 @@
         <v>3603.543393243144</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9568,7 +9144,7 @@
         <v>3933.499293243144</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9601,7 +9177,7 @@
         <v>3905.071693243144</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9634,7 +9210,7 @@
         <v>3390.243293243144</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9667,7 +9243,7 @@
         <v>3138.663293243144</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9700,7 +9276,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9733,7 +9309,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9766,7 +9342,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9799,7 +9375,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9832,7 +9408,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9865,7 +9441,7 @@
         <v>4126.219293243144</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9898,7 +9474,7 @@
         <v>4286.219293243144</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9931,7 +9507,7 @@
         <v>3756.240193243144</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9964,7 +9540,7 @@
         <v>6260.465093243145</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9997,7 +9573,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10030,7 +9606,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10063,7 +9639,7 @@
         <v>6522.359693243146</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10096,7 +9672,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10129,7 +9705,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10162,7 +9738,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10195,7 +9771,7 @@
         <v>6116.204793243145</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10228,7 +9804,7 @@
         <v>6530.604193243145</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10261,7 +9837,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10294,7 +9870,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10327,7 +9903,7 @@
         <v>2227.722793243145</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10360,7 +9936,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10393,7 +9969,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10426,7 +10002,7 @@
         <v>2217.869893243145</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10459,7 +10035,7 @@
         <v>2177.869893243145</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10492,7 +10068,7 @@
         <v>1439.630193243145</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10525,7 +10101,7 @@
         <v>1604.710493243145</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10558,7 +10134,7 @@
         <v>2078.930293243145</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10591,7 +10167,7 @@
         <v>2078.930293243145</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10624,7 +10200,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10657,7 +10233,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10690,7 +10266,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10723,7 +10299,7 @@
         <v>1842.103193243145</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10756,7 +10332,7 @@
         <v>2007.261693243145</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10789,7 +10365,7 @@
         <v>1979.891793243145</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10822,7 +10398,7 @@
         <v>2133.880493243145</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10855,7 +10431,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10888,7 +10464,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10921,7 +10497,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10954,7 +10530,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10987,7 +10563,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11020,7 +10596,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11053,7 +10629,7 @@
         <v>1697.749493243145</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11086,7 +10662,7 @@
         <v>1698.249493243145</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11119,7 +10695,7 @@
         <v>1488.738193243145</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11152,7 +10728,7 @@
         <v>1408.969793243145</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11185,7 +10761,7 @@
         <v>1411.860693243146</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11218,7 +10794,7 @@
         <v>1411.860693243146</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11251,7 +10827,7 @@
         <v>1644.630493243146</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11284,7 +10860,7 @@
         <v>1526.168293243146</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11317,7 +10893,7 @@
         <v>1526.168293243146</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11350,7 +10926,7 @@
         <v>1442.844793243146</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11383,7 +10959,7 @@
         <v>1442.844793243146</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11416,7 +10992,7 @@
         <v>1447.322693243146</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11449,7 +11025,7 @@
         <v>1452.059593243146</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11482,7 +11058,7 @@
         <v>1452.059593243146</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11515,7 +11091,7 @@
         <v>1448.559593243146</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11548,7 +11124,7 @@
         <v>1543.457493243146</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11581,7 +11157,7 @@
         <v>1543.106193243146</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11614,7 +11190,7 @@
         <v>1623.328193243146</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11647,7 +11223,7 @@
         <v>1639.558093243146</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11680,7 +11256,7 @@
         <v>1637.070293243146</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11713,7 +11289,7 @@
         <v>1649.920293243146</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11746,7 +11322,7 @@
         <v>1439.475993243146</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11845,7 +11421,7 @@
         <v>1475.726393243146</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11878,7 +11454,7 @@
         <v>1450.726393243146</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12109,7 +11685,7 @@
         <v>-2332.686506756855</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12175,7 +11751,7 @@
         <v>-2331.546106756854</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -14155,7 +13731,7 @@
         <v>-3353.028306756855</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14716,10 +14292,14 @@
         <v>-3896.881106756855</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>5535</v>
+      </c>
+      <c r="J415" t="n">
+        <v>5535</v>
+      </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -14749,11 +14329,19 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>5530</v>
+      </c>
+      <c r="J416" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14782,11 +14370,19 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>5500</v>
+      </c>
+      <c r="J417" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14815,11 +14411,19 @@
         <v>-4012.978506756855</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>5500</v>
+      </c>
+      <c r="J418" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14848,11 +14452,19 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>5495</v>
+      </c>
+      <c r="J419" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14881,11 +14493,19 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>5490</v>
+      </c>
+      <c r="J420" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14914,11 +14534,19 @@
         <v>-5054.954006756856</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>5490</v>
+      </c>
+      <c r="J421" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14947,11 +14575,19 @@
         <v>-4958.454006756856</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>5495</v>
+      </c>
+      <c r="J422" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +14616,19 @@
         <v>-3914.157306756856</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5500</v>
+      </c>
+      <c r="J423" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15016,8 +14660,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15049,8 +14699,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15082,8 +14738,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15115,8 +14777,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15148,8 +14816,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15181,8 +14855,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15214,8 +14894,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15247,8 +14933,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15280,8 +14972,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15313,8 +15011,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15346,8 +15050,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15379,8 +15089,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15412,8 +15128,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15445,8 +15167,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15478,8 +15206,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15511,8 +15245,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15544,8 +15284,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15577,8 +15323,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15610,8 +15362,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15640,11 +15398,17 @@
         <v>-2500.272406756857</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15673,11 +15437,17 @@
         <v>-2500.272406756857</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15706,11 +15476,17 @@
         <v>-2401.558606756857</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15739,11 +15515,17 @@
         <v>-2401.558606756857</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15772,11 +15554,17 @@
         <v>-2578.238406756856</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15805,11 +15593,17 @@
         <v>-2478.268406756857</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15838,11 +15632,17 @@
         <v>-745.5454067568567</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15871,11 +15671,17 @@
         <v>-930.8010067568566</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +15710,17 @@
         <v>-629.2876067568566</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15937,11 +15749,17 @@
         <v>-352.7757407975286</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15970,11 +15788,17 @@
         <v>-1705.917740797528</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +15827,17 @@
         <v>-1546.725540797529</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16036,11 +15866,17 @@
         <v>-1546.725540797529</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16069,11 +15905,17 @@
         <v>-1555.643540797528</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16102,11 +15944,17 @@
         <v>-1466.109058528025</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16135,11 +15983,17 @@
         <v>-1483.870958528025</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16168,11 +16022,17 @@
         <v>-1526.449458528025</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +16061,17 @@
         <v>-1449.312358528025</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16237,8 +16103,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16270,8 +16142,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16303,8 +16181,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16336,8 +16220,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16369,8 +16259,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16402,8 +16298,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16435,8 +16337,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16468,8 +16376,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16498,11 +16412,17 @@
         <v>-2211.307258528025</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16531,11 +16451,17 @@
         <v>-2211.307258528025</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16567,8 +16493,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16597,11 +16529,17 @@
         <v>-2211.307258528025</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16633,8 +16571,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16666,8 +16610,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16699,8 +16649,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16732,8 +16688,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16765,8 +16727,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16798,8 +16766,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16831,8 +16805,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16861,11 +16841,17 @@
         <v>-1033.541458528025</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16894,11 +16880,17 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16927,11 +16919,17 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16963,8 +16961,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16993,11 +16997,17 @@
         <v>-2225.428058528024</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17026,11 +17036,17 @@
         <v>-3569.269958528024</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17059,11 +17075,17 @@
         <v>-3006.50429481121</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17095,8 +17117,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17128,8 +17156,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17161,8 +17195,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17194,8 +17234,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17227,8 +17273,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17260,8 +17312,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17293,8 +17351,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17326,8 +17390,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17359,8 +17429,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17392,8 +17468,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17425,8 +17507,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17458,8 +17546,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17491,8 +17585,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17524,8 +17624,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17557,8 +17663,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17590,8 +17702,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17623,8 +17741,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17656,8 +17780,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17689,8 +17819,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17722,8 +17858,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17755,8 +17897,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17788,8 +17936,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17818,11 +17972,17 @@
         <v>-4403.350034633414</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17851,11 +18011,17 @@
         <v>-4402.350034633414</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17884,11 +18050,17 @@
         <v>-4017.639734633414</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17917,11 +18089,17 @@
         <v>-3866.492709898432</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17950,11 +18128,17 @@
         <v>-4057.767809898432</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17983,11 +18167,17 @@
         <v>-4924.348809898432</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18016,11 +18206,17 @@
         <v>-4669.607309898432</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18052,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +18287,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18115,11 +18323,17 @@
         <v>-4466.028109898431</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18148,11 +18362,17 @@
         <v>-4457.233109898431</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18181,11 +18401,17 @@
         <v>-4458.233109898431</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18217,8 +18443,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18247,11 +18479,17 @@
         <v>-4897.312709898431</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18283,8 +18521,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18316,8 +18560,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18349,8 +18599,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18382,8 +18638,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18415,8 +18677,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18448,8 +18716,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18481,8 +18755,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18514,8 +18794,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18547,8 +18833,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18580,8 +18872,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18613,8 +18911,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18646,8 +18950,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18679,8 +18989,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18712,8 +19028,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18742,13 +19064,19 @@
         <v>-4725.734609898431</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>5535</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L537" t="n">
-        <v>1</v>
+        <v>1.029327009936766</v>
       </c>
       <c r="M537" t="inlineStr"/>
     </row>
@@ -18775,7 +19103,7 @@
         <v>-4717.75870989843</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18808,7 +19136,7 @@
         <v>-4932.019709898431</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18841,7 +19169,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18874,7 +19202,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19072,7 +19400,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19105,7 +19433,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19138,7 +19466,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19171,7 +19499,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19204,7 +19532,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19237,7 +19565,7 @@
         <v>-6019.701909898431</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19270,7 +19598,7 @@
         <v>-5892.834509898431</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19303,7 +19631,7 @@
         <v>-7547.282609898431</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19336,7 +19664,7 @@
         <v>-7274.053609898431</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19369,7 +19697,7 @@
         <v>-7504.870409898431</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19402,7 +19730,7 @@
         <v>-7504.870409898431</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19435,7 +19763,7 @@
         <v>-8171.96870989843</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19468,7 +19796,7 @@
         <v>-8171.5999653857</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19501,7 +19829,7 @@
         <v>-8250.1709653857</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19534,7 +19862,7 @@
         <v>-8150.1709653857</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19567,7 +19895,7 @@
         <v>-8050.1709653857</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19600,7 +19928,7 @@
         <v>-8050.2709653857</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19633,7 +19961,7 @@
         <v>-8156.4350653857</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19666,7 +19994,7 @@
         <v>-8544.248665385699</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19699,7 +20027,7 @@
         <v>-8544.248665385699</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19732,7 +20060,7 @@
         <v>-8544.3486653857</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19765,7 +20093,7 @@
         <v>-9141.549365385699</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19798,7 +20126,7 @@
         <v>-9141.549365385699</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19831,7 +20159,7 @@
         <v>-9121.638165385699</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19864,7 +20192,7 @@
         <v>-9224.726665385699</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21877,10 +22205,14 @@
         <v>-9015.020765385696</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5630</v>
+      </c>
+      <c r="J632" t="n">
+        <v>5630</v>
+      </c>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
@@ -21910,11 +22242,19 @@
         <v>-8841.875065385697</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5610</v>
+      </c>
+      <c r="J633" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21943,11 +22283,19 @@
         <v>-9213.453065385696</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5615</v>
+      </c>
+      <c r="J634" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21976,11 +22324,19 @@
         <v>-8913.153965385696</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5605</v>
+      </c>
+      <c r="J635" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22009,11 +22365,19 @@
         <v>-9018.526365385696</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>5610</v>
+      </c>
+      <c r="J636" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22042,11 +22406,19 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5605</v>
+      </c>
+      <c r="J637" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22075,11 +22447,19 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J638" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22108,11 +22488,19 @@
         <v>-9159.798165385697</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J639" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22141,11 +22529,19 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>5580</v>
+      </c>
+      <c r="J640" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22174,11 +22570,19 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J641" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22207,11 +22611,19 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J642" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22240,11 +22652,19 @@
         <v>-9178.703265385697</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J643" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22273,11 +22693,19 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5595</v>
+      </c>
+      <c r="J644" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22306,11 +22734,19 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J645" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22339,11 +22775,19 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J646" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22375,8 +22819,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22408,8 +22858,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22441,8 +22897,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22474,8 +22936,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22507,8 +22975,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22540,8 +23014,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22570,11 +23050,19 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J653" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22603,11 +23091,19 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J654" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22636,11 +23132,19 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J655" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22669,11 +23173,19 @@
         <v>-8660.195365385694</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J656" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22702,11 +23214,19 @@
         <v>-8579.120365385694</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J657" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22735,11 +23255,19 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5575</v>
+      </c>
+      <c r="J658" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22768,11 +23296,19 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5580</v>
+      </c>
+      <c r="J659" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22804,8 +23340,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22834,11 +23376,19 @@
         <v>-8419.038165385693</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J661" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22870,8 +23420,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22900,11 +23456,19 @@
         <v>-7647.204665385692</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J663" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22933,11 +23497,19 @@
         <v>-7934.978665385693</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J664" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22966,11 +23538,19 @@
         <v>-8501.213665385692</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5555</v>
+      </c>
+      <c r="J665" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22999,11 +23579,19 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5550</v>
+      </c>
+      <c r="J666" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23032,17 +23620,25 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5570</v>
+      </c>
+      <c r="J667" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
       <c r="M667" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ETC.xlsx
+++ b/BackTest/2019-10-28 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4780.783799999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>6642.552699999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,15 +1276,11 @@
         <v>8995.815699999997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1411,15 +1309,11 @@
         <v>10197.6664</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1448,15 +1342,11 @@
         <v>11066.8182</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1485,15 +1375,11 @@
         <v>11066.8182</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,15 +1441,11 @@
         <v>12838.7219</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,15 +1474,11 @@
         <v>12831.0915</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1633,15 +1507,11 @@
         <v>12156.6687</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1670,15 +1540,11 @@
         <v>12156.6687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1707,15 +1573,11 @@
         <v>12156.6687</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1744,15 +1606,11 @@
         <v>12163.3714</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1781,15 +1639,11 @@
         <v>12163.3714</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1818,15 +1672,11 @@
         <v>12293.8306</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1855,15 +1705,11 @@
         <v>12293.8306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1892,15 +1738,11 @@
         <v>12293.8306</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1929,15 +1771,11 @@
         <v>12720.1626</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1966,15 +1804,11 @@
         <v>12906.3435</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2003,15 +1837,11 @@
         <v>13060.23429999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2040,15 +1870,11 @@
         <v>13179.73229999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,15 +1903,11 @@
         <v>12558.46882100991</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2114,15 +1936,11 @@
         <v>11858.30692100991</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2151,15 +1969,11 @@
         <v>11753.03642100991</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2188,15 +2002,11 @@
         <v>11924.55972100991</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2336,15 +2134,11 @@
         <v>12349.38102100992</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,15 +2167,11 @@
         <v>12802.28932100992</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,12 +2204,10 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2445,7 +2233,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2511,7 +2299,7 @@
         <v>12473.82982100991</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2544,7 +2332,7 @@
         <v>12472.27412100991</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2577,7 +2365,7 @@
         <v>12719.68022100991</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2610,7 +2398,7 @@
         <v>12863.05272100991</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2643,7 +2431,7 @@
         <v>12851.16072100991</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2676,7 +2464,7 @@
         <v>11413.25062100991</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2709,7 +2497,7 @@
         <v>11530.03812100991</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2742,7 +2530,7 @@
         <v>11530.03812100991</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2775,7 +2563,7 @@
         <v>10894.19102100991</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2808,7 +2596,7 @@
         <v>10894.19102100991</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2874,7 +2662,7 @@
         <v>8685.436821009911</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2907,7 +2695,7 @@
         <v>8696.23682100991</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2940,7 +2728,7 @@
         <v>8706.328321009911</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2973,7 +2761,7 @@
         <v>8693.384421009911</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3006,7 +2794,7 @@
         <v>8499.93392100991</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3039,7 +2827,7 @@
         <v>8501.983921009909</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3072,7 +2860,7 @@
         <v>8487.27112100991</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3105,7 +2893,7 @@
         <v>8297.253921009909</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3138,7 +2926,7 @@
         <v>8297.253921009909</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3171,7 +2959,7 @@
         <v>7359.075221009909</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3204,7 +2992,7 @@
         <v>6401.159521009909</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3237,7 +3025,7 @@
         <v>7243.721421009909</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3270,7 +3058,7 @@
         <v>6779.126421009909</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3303,7 +3091,7 @@
         <v>6576.206421009909</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3336,7 +3124,7 @@
         <v>6596.498421009909</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -6438,7 +6226,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6471,7 +6259,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6834,7 +6622,7 @@
         <v>5213.791593243142</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6867,7 +6655,7 @@
         <v>5206.279693243142</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6900,7 +6688,7 @@
         <v>4981.117793243142</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6933,7 +6721,7 @@
         <v>5319.470893243142</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6966,7 +6754,7 @@
         <v>8979.056293243142</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6999,7 +6787,7 @@
         <v>8168.411693243143</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7032,7 +6820,7 @@
         <v>8557.991393243143</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7065,7 +6853,7 @@
         <v>7072.633493243143</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7098,7 +6886,7 @@
         <v>6457.224693243143</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7131,7 +6919,7 @@
         <v>6226.798193243143</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7164,7 +6952,7 @@
         <v>4400.939293243143</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7197,7 +6985,7 @@
         <v>5712.445893243143</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7230,7 +7018,7 @@
         <v>4002.912793243142</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7263,7 +7051,7 @@
         <v>3601.826593243142</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7296,7 +7084,7 @@
         <v>3902.005593243142</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7329,7 +7117,7 @@
         <v>4117.727493243143</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7362,7 +7150,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7428,7 +7216,7 @@
         <v>4306.026893243143</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7461,7 +7249,7 @@
         <v>4312.346093243143</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7494,7 +7282,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7527,7 +7315,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8253,7 +8041,7 @@
         <v>5205.952393243143</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8385,7 +8173,7 @@
         <v>3915.209093243142</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8418,7 +8206,7 @@
         <v>4049.176993243142</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8748,7 +8536,7 @@
         <v>3532.160493243143</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8781,7 +8569,7 @@
         <v>3296.599593243143</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8880,7 +8668,7 @@
         <v>4499.410993243143</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8946,7 +8734,7 @@
         <v>4322.376493243143</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8979,7 +8767,7 @@
         <v>5144.628893243143</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9012,7 +8800,7 @@
         <v>3316.806193243144</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9045,7 +8833,7 @@
         <v>4336.939293243144</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9078,7 +8866,7 @@
         <v>4254.257793243144</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9111,7 +8899,7 @@
         <v>3603.543393243144</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9144,7 +8932,7 @@
         <v>3933.499293243144</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9210,7 +8998,7 @@
         <v>3390.243293243144</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9243,7 +9031,7 @@
         <v>3138.663293243144</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9276,7 +9064,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9309,7 +9097,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9342,7 +9130,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9375,7 +9163,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9606,7 +9394,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9639,7 +9427,7 @@
         <v>6522.359693243146</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9672,7 +9460,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9705,7 +9493,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9738,7 +9526,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9771,7 +9559,7 @@
         <v>6116.204793243145</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9870,7 +9658,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9903,7 +9691,7 @@
         <v>2227.722793243145</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9936,7 +9724,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10068,7 +9856,7 @@
         <v>1439.630193243145</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10101,7 +9889,7 @@
         <v>1604.710493243145</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10134,7 +9922,7 @@
         <v>2078.930293243145</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10167,7 +9955,7 @@
         <v>2078.930293243145</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10200,7 +9988,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10233,7 +10021,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10266,7 +10054,7 @@
         <v>1863.103193243145</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10299,7 +10087,7 @@
         <v>1842.103193243145</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10332,7 +10120,7 @@
         <v>2007.261693243145</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10365,7 +10153,7 @@
         <v>1979.891793243145</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10398,7 +10186,7 @@
         <v>2133.880493243145</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10431,7 +10219,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10464,7 +10252,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10563,7 +10351,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10629,7 +10417,7 @@
         <v>1697.749493243145</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10662,7 +10450,7 @@
         <v>1698.249493243145</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10695,7 +10483,7 @@
         <v>1488.738193243145</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10728,7 +10516,7 @@
         <v>1408.969793243145</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10761,7 +10549,7 @@
         <v>1411.860693243146</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10794,7 +10582,7 @@
         <v>1411.860693243146</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10827,7 +10615,7 @@
         <v>1644.630493243146</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10860,7 +10648,7 @@
         <v>1526.168293243146</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10893,7 +10681,7 @@
         <v>1526.168293243146</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10926,7 +10714,7 @@
         <v>1442.844793243146</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10959,7 +10747,7 @@
         <v>1442.844793243146</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10992,7 +10780,7 @@
         <v>1447.322693243146</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11025,7 +10813,7 @@
         <v>1452.059593243146</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11058,7 +10846,7 @@
         <v>1452.059593243146</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11091,7 +10879,7 @@
         <v>1448.559593243146</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11124,7 +10912,7 @@
         <v>1543.457493243146</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11157,7 +10945,7 @@
         <v>1543.106193243146</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11190,7 +10978,7 @@
         <v>1623.328193243146</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11223,7 +11011,7 @@
         <v>1639.558093243146</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11256,7 +11044,7 @@
         <v>1637.070293243146</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11289,7 +11077,7 @@
         <v>1649.920293243146</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11322,7 +11110,7 @@
         <v>1439.475993243146</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11421,7 +11209,7 @@
         <v>1475.726393243146</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11454,7 +11242,7 @@
         <v>1450.726393243146</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -14292,14 +14080,10 @@
         <v>-3896.881106756855</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>5535</v>
-      </c>
-      <c r="J415" t="n">
-        <v>5535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -14329,19 +14113,11 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>5530</v>
-      </c>
-      <c r="J416" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14370,19 +14146,11 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J417" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14411,19 +14179,11 @@
         <v>-4012.978506756855</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J418" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14452,19 +14212,11 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>5495</v>
-      </c>
-      <c r="J419" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14493,19 +14245,11 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>5490</v>
-      </c>
-      <c r="J420" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14540,13 +14284,9 @@
         <v>5490</v>
       </c>
       <c r="J421" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5490</v>
+      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14575,17 +14315,15 @@
         <v>-4958.454006756856</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>5495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>5535</v>
+        <v>5490</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -14616,17 +14354,15 @@
         <v>-3914.157306756856</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>5500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>5535</v>
+        <v>5490</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -14660,14 +14396,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14699,14 +14429,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14738,14 +14462,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14777,14 +14495,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14816,14 +14528,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14855,14 +14561,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14894,14 +14594,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14933,14 +14627,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14972,14 +14660,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15011,14 +14693,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15050,14 +14726,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15089,14 +14759,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15128,14 +14792,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15167,14 +14825,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15206,14 +14858,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15245,14 +14891,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15284,14 +14924,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15323,14 +14957,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15362,14 +14990,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15401,14 +15023,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15440,14 +15056,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15479,14 +15089,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15518,14 +15122,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15557,14 +15155,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15596,14 +15188,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15635,14 +15221,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15674,14 +15254,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15713,14 +15287,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15752,14 +15320,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15791,14 +15353,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15830,14 +15386,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15869,14 +15419,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15908,14 +15452,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15947,14 +15485,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15986,14 +15518,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16025,14 +15551,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16064,14 +15584,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16103,14 +15617,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16142,14 +15650,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16181,14 +15683,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16220,14 +15716,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16259,14 +15749,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16298,14 +15782,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16337,14 +15815,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16376,14 +15848,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16415,14 +15881,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16454,14 +15914,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16493,14 +15947,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16532,14 +15980,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16571,14 +16013,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16610,14 +16046,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16649,14 +16079,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16688,14 +16112,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16727,14 +16145,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16766,14 +16178,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16805,14 +16211,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16844,14 +16244,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16883,14 +16277,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16922,14 +16310,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16961,14 +16343,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17000,14 +16376,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17039,14 +16409,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17078,14 +16442,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17117,14 +16475,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17156,14 +16508,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17195,14 +16541,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17234,14 +16574,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17273,14 +16607,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17312,14 +16640,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17351,14 +16673,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17390,14 +16706,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17429,14 +16739,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17468,14 +16772,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17507,14 +16805,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17546,14 +16838,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17585,14 +16871,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17624,14 +16904,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17663,14 +16937,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17702,14 +16970,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17741,14 +17003,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17780,14 +17036,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17819,14 +17069,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17858,14 +17102,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17897,14 +17135,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17936,14 +17168,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17975,14 +17201,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18014,14 +17234,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18053,14 +17267,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18092,14 +17300,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18131,14 +17333,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18170,14 +17366,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18209,14 +17399,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18248,14 +17432,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18287,14 +17465,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18326,14 +17498,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18365,14 +17531,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18404,14 +17564,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18443,14 +17597,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18482,14 +17630,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18521,14 +17663,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18560,14 +17696,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18599,14 +17729,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18638,14 +17762,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18677,14 +17795,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18716,14 +17828,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18755,14 +17861,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18794,14 +17894,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18833,14 +17927,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18872,14 +17960,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18911,14 +17993,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18950,14 +18026,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18989,14 +18059,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19028,14 +18092,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19064,19 +18122,13 @@
         <v>-4725.734609898431</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>5535</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
-        <v>1.029327009936766</v>
+        <v>1</v>
       </c>
       <c r="M537" t="inlineStr"/>
     </row>
@@ -19103,7 +18155,7 @@
         <v>-4717.75870989843</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19136,7 +18188,7 @@
         <v>-4932.019709898431</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19169,7 +18221,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19202,7 +18254,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19400,7 +18452,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19433,7 +18485,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19466,7 +18518,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19499,7 +18551,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19532,7 +18584,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19565,7 +18617,7 @@
         <v>-6019.701909898431</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19598,7 +18650,7 @@
         <v>-5892.834509898431</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19631,7 +18683,7 @@
         <v>-7547.282609898431</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19664,7 +18716,7 @@
         <v>-7274.053609898431</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19697,7 +18749,7 @@
         <v>-7504.870409898431</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19730,7 +18782,7 @@
         <v>-7504.870409898431</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19763,7 +18815,7 @@
         <v>-8171.96870989843</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19796,7 +18848,7 @@
         <v>-8171.5999653857</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19829,7 +18881,7 @@
         <v>-8250.1709653857</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19862,7 +18914,7 @@
         <v>-8150.1709653857</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19895,7 +18947,7 @@
         <v>-8050.1709653857</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19928,7 +18980,7 @@
         <v>-8050.2709653857</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19961,7 +19013,7 @@
         <v>-8156.4350653857</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19994,7 +19046,7 @@
         <v>-8544.248665385699</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20027,7 +19079,7 @@
         <v>-8544.248665385699</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20060,7 +19112,7 @@
         <v>-8544.3486653857</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20093,7 +19145,7 @@
         <v>-9141.549365385699</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20126,7 +19178,7 @@
         <v>-9141.549365385699</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20159,7 +19211,7 @@
         <v>-9121.638165385699</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20192,7 +19244,7 @@
         <v>-9224.726665385699</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20951,10 +20003,14 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>5615</v>
+      </c>
+      <c r="J594" t="n">
+        <v>5615</v>
+      </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
@@ -20984,11 +20040,19 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J595" t="n">
+        <v>5615</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21017,11 +20081,19 @@
         <v>-8953.009665385696</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J596" t="n">
+        <v>5615</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21116,11 +20188,17 @@
         <v>-8796.530165385697</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5640</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21153,7 +20231,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21186,7 +20268,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21219,7 +20305,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21248,11 +20338,17 @@
         <v>-9080.468465385697</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>5635</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21285,7 +20381,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21318,7 +20418,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21351,7 +20455,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21384,7 +20492,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21417,7 +20529,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21450,7 +20566,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21483,7 +20603,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21512,11 +20636,17 @@
         <v>-9630.205965385696</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5615</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21549,7 +20679,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21582,7 +20716,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21615,7 +20753,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21648,7 +20790,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21681,7 +20827,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21714,7 +20864,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21747,7 +20901,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21776,11 +20934,17 @@
         <v>-8924.468265385694</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>5625</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21813,7 +20977,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21846,7 +21014,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21879,7 +21051,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21912,7 +21088,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21945,7 +21125,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21978,7 +21162,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22011,7 +21199,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22044,7 +21236,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22077,7 +21273,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22110,7 +21310,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22143,7 +21347,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22176,7 +21384,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22205,15 +21417,15 @@
         <v>-9015.020765385696</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>5630</v>
-      </c>
-      <c r="J632" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K632" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22242,17 +21454,13 @@
         <v>-8841.875065385697</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>5610</v>
-      </c>
-      <c r="J633" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L633" t="n">
@@ -22283,14 +21491,10 @@
         <v>-9213.453065385696</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>5615</v>
-      </c>
-      <c r="J634" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22324,14 +21528,10 @@
         <v>-8913.153965385696</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>5605</v>
-      </c>
-      <c r="J635" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22365,14 +21565,10 @@
         <v>-9018.526365385696</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>5610</v>
-      </c>
-      <c r="J636" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22406,14 +21602,10 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>5605</v>
-      </c>
-      <c r="J637" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22447,14 +21639,10 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J638" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22488,14 +21676,10 @@
         <v>-9159.798165385697</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J639" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22529,14 +21713,10 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>5580</v>
-      </c>
-      <c r="J640" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22570,14 +21750,10 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J641" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22611,14 +21787,10 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J642" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22652,14 +21824,10 @@
         <v>-9178.703265385697</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J643" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22693,14 +21861,10 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>5595</v>
-      </c>
-      <c r="J644" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22734,14 +21898,10 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J645" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22775,14 +21935,10 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J646" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22819,9 +21975,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22858,9 +22012,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22897,9 +22049,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22936,9 +22086,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22975,9 +22123,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23014,9 +22160,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23050,14 +22194,10 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J653" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23091,14 +22231,10 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J654" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23132,14 +22268,10 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J655" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23173,14 +22305,10 @@
         <v>-8660.195365385694</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J656" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23214,14 +22342,10 @@
         <v>-8579.120365385694</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>5555</v>
-      </c>
-      <c r="J657" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23255,14 +22379,10 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5575</v>
-      </c>
-      <c r="J658" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23296,14 +22416,10 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>5580</v>
-      </c>
-      <c r="J659" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23340,9 +22456,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23376,14 +22490,10 @@
         <v>-8419.038165385693</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>5560</v>
-      </c>
-      <c r="J661" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23420,9 +22530,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>5630</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23456,14 +22564,10 @@
         <v>-7647.204665385692</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>5560</v>
-      </c>
-      <c r="J663" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23497,14 +22601,10 @@
         <v>-7934.978665385693</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J664" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23538,14 +22638,10 @@
         <v>-8501.213665385692</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>5555</v>
-      </c>
-      <c r="J665" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23579,14 +22675,10 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>5550</v>
-      </c>
-      <c r="J666" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23620,14 +22712,10 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>5570</v>
-      </c>
-      <c r="J667" t="n">
-        <v>5630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23639,6 +22727,6 @@
       <c r="M667" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ETC.xlsx
+++ b/BackTest/2019-10-28 BackTest ETC.xlsx
@@ -1276,7 +1276,7 @@
         <v>8995.815699999997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>10197.6664</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>12838.7219</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>12831.0915</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>12720.1626</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>12906.3435</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>13060.23429999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>13179.73229999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>12558.46882100991</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>11858.30692100991</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>11753.03642100991</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>11924.55972100991</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>12349.38102100992</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>12802.28932100992</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>12252.49512100992</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>12473.82982100991</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>5213.791593243142</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>5206.279693243142</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>4981.117793243142</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>5319.470893243142</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>8979.056293243142</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>8168.411693243143</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>8557.991393243143</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>7072.633493243143</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>6457.224693243143</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>6226.798193243143</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>4400.939293243143</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>5712.445893243143</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>4002.912793243142</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3601.826593243142</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3902.005593243142</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>4117.727493243143</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>4306.026893243143</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>4312.346093243143</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4336.939293243144</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>4254.257793243144</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3603.543393243144</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3933.499293243144</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3390.243293243144</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3138.663293243144</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>6522.359693243146</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>6116.204793243145</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>2227.722793243145</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2217.869893243145</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2177.869893243145</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -14278,14 +14278,10 @@
         <v>-5054.954006756856</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>5490</v>
-      </c>
-      <c r="J421" t="n">
-        <v>5490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14318,14 +14314,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>5490</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14357,14 +14347,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>5490</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16175,7 +16159,7 @@
         <v>-1906.143258528025</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16208,7 +16192,7 @@
         <v>-1963.143258528025</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16241,7 +16225,7 @@
         <v>-1033.541458528025</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16274,7 +16258,7 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16307,7 +16291,7 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16340,7 +16324,7 @@
         <v>-1893.442658528024</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16373,7 +16357,7 @@
         <v>-2225.428058528024</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16406,7 +16390,7 @@
         <v>-3569.269958528024</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17561,7 +17545,7 @@
         <v>-4458.233109898431</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17825,7 +17809,7 @@
         <v>-4704.349209898432</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17891,7 +17875,7 @@
         <v>-3691.716209898431</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17924,7 +17908,7 @@
         <v>-3652.586209898431</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17957,7 +17941,7 @@
         <v>-3876.929309898431</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17990,7 +17974,7 @@
         <v>-3352.180909898431</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18023,7 +18007,7 @@
         <v>-3352.180909898431</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18056,7 +18040,7 @@
         <v>-2635.896709898431</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18089,7 +18073,7 @@
         <v>-4170.752109898431</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18122,7 +18106,7 @@
         <v>-4725.734609898431</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18155,7 +18139,7 @@
         <v>-4717.75870989843</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18188,7 +18172,7 @@
         <v>-4932.019709898431</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18221,7 +18205,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18254,7 +18238,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18287,7 +18271,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18320,7 +18304,7 @@
         <v>-5243.143209898431</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18353,7 +18337,7 @@
         <v>-5257.405809898431</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18386,7 +18370,7 @@
         <v>-5032.786309898431</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18419,7 +18403,7 @@
         <v>-4632.786309898431</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18452,7 +18436,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18485,7 +18469,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18518,7 +18502,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18551,7 +18535,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18584,7 +18568,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18617,7 +18601,7 @@
         <v>-6019.701909898431</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19541,11 +19525,17 @@
         <v>-10081.4998653857</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>5585</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19574,11 +19564,17 @@
         <v>-10081.4998653857</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>5590</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19607,11 +19603,17 @@
         <v>-9959.2915653857</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5590</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19640,11 +19642,17 @@
         <v>-9322.955465385699</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5595</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19677,7 +19685,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19710,7 +19722,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19743,7 +19759,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19776,7 +19796,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19805,11 +19829,17 @@
         <v>-10157.4816653857</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5560</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19842,7 +19872,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19875,7 +19909,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19908,7 +19946,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19941,7 +19983,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19974,7 +20020,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20003,15 +20053,15 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>5615</v>
-      </c>
-      <c r="J594" t="n">
-        <v>5615</v>
-      </c>
-      <c r="K594" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20040,17 +20090,13 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>5635</v>
-      </c>
-      <c r="J595" t="n">
-        <v>5615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L595" t="n">
@@ -20081,17 +20127,13 @@
         <v>-8953.009665385696</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>5635</v>
-      </c>
-      <c r="J596" t="n">
-        <v>5615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L596" t="n">
@@ -20126,7 +20168,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20159,7 +20205,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20188,15 +20238,13 @@
         <v>-8796.530165385697</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L599" t="n">
@@ -20338,11 +20386,9 @@
         <v>-9080.468465385697</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>5635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20488,9 +20534,11 @@
         <v>-9283.108465385696</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>5640</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -20525,9 +20573,11 @@
         <v>-9401.622565385696</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>5630</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20562,9 +20612,11 @@
         <v>-9414.721565385697</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>5625</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20599,9 +20651,11 @@
         <v>-9608.622565385696</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5620</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -20675,9 +20729,11 @@
         <v>-8992.234365385695</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>5605</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20712,9 +20768,11 @@
         <v>-8982.465165385694</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>5610</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20749,9 +20807,11 @@
         <v>-8982.465165385694</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5630</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -20786,9 +20846,11 @@
         <v>-8938.239165385694</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>5630</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -20823,9 +20885,11 @@
         <v>-8161.463265385694</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>5640</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -20860,9 +20924,11 @@
         <v>-8186.433265385695</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>5645</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -20897,9 +20963,11 @@
         <v>-8275.121165385695</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>5635</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -20973,9 +21041,11 @@
         <v>-8922.743365385695</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>5620</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21010,9 +21080,11 @@
         <v>-8931.093365385696</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>5625</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21047,9 +21119,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>5615</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21084,9 +21158,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5625</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21121,9 +21197,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5625</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21158,9 +21236,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>5625</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21195,9 +21275,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5625</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21232,9 +21314,11 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5625</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21269,9 +21353,11 @@
         <v>-8865.392265385695</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5625</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21306,9 +21392,11 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5635</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21343,9 +21431,11 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5630</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21380,9 +21470,11 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5630</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21417,9 +21509,11 @@
         <v>-9015.020765385696</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5630</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21454,9 +21548,11 @@
         <v>-8841.875065385697</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5610</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21491,9 +21587,11 @@
         <v>-9213.453065385696</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5615</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21528,9 +21626,11 @@
         <v>-8913.153965385696</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5605</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21565,9 +21665,11 @@
         <v>-9018.526365385696</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>5610</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21602,9 +21704,11 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5605</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21639,9 +21743,11 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>5600</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21676,9 +21782,11 @@
         <v>-9159.798165385697</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>5600</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -21713,9 +21821,11 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>5580</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -21750,9 +21860,11 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>5600</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -21787,9 +21899,11 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>5600</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21824,9 +21938,11 @@
         <v>-9178.703265385697</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>5600</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21861,9 +21977,11 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5595</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21898,9 +22016,11 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>5600</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21935,9 +22055,11 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5600</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21972,9 +22094,11 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>5600</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22009,9 +22133,11 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>5580</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22046,9 +22172,11 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>5580</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22083,9 +22211,11 @@
         <v>-8478.724965385696</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>5580</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22120,9 +22250,11 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5575</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22157,9 +22289,11 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5570</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22194,9 +22328,11 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5570</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22231,9 +22367,11 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5570</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22268,9 +22406,11 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5570</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22305,9 +22445,11 @@
         <v>-8660.195365385694</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5570</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22342,9 +22484,11 @@
         <v>-8579.120365385694</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5555</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22379,9 +22523,11 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5575</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22453,9 +22599,11 @@
         <v>-8519.938165385693</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5580</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22490,9 +22638,11 @@
         <v>-8419.038165385693</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>5560</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22527,9 +22677,11 @@
         <v>-8443.028165385693</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>5570</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22564,9 +22716,11 @@
         <v>-7647.204665385692</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5560</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22601,9 +22755,11 @@
         <v>-7934.978665385693</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5570</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22638,9 +22794,11 @@
         <v>-8501.213665385692</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5555</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22675,9 +22833,11 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5550</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22712,9 +22872,11 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5570</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
